--- a/Data/Processing/2024-02-02/CANFINHOME.xlsx
+++ b/Data/Processing/2024-02-02/CANFINHOME.xlsx
@@ -1869,7 +1869,7 @@
         <v>570.5599999999999</v>
       </c>
       <c r="D27">
-        <v>534.14</v>
+        <v>534.15</v>
       </c>
       <c r="E27">
         <v>537.23</v>
